--- a/tut05/output/0401CS22.xlsx
+++ b/tut05/output/0401CS22.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.836734693877551</v>
+        <v>6.84</v>
       </c>
       <c r="C6" t="n">
-        <v>5.659090909090909</v>
+        <v>5.66</v>
       </c>
       <c r="D6" t="n">
-        <v>6.674418604651163</v>
+        <v>6.67</v>
       </c>
       <c r="E6" t="n">
-        <v>6.851063829787234</v>
+        <v>6.85</v>
       </c>
       <c r="F6" t="n">
-        <v>6.642857142857143</v>
+        <v>6.64</v>
       </c>
       <c r="G6" t="n">
-        <v>6.475</v>
+        <v>6.47</v>
       </c>
       <c r="H6" t="n">
-        <v>7.853658536585366</v>
+        <v>7.85</v>
       </c>
       <c r="I6" t="n">
         <v>6.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.836734693877551</v>
+        <v>6.84</v>
       </c>
       <c r="C8" t="n">
-        <v>6.279569892473118</v>
+        <v>6.28</v>
       </c>
       <c r="D8" t="n">
-        <v>6.404411764705882</v>
+        <v>6.4</v>
       </c>
       <c r="E8" t="n">
-        <v>6.51912568306011</v>
+        <v>6.52</v>
       </c>
       <c r="F8" t="n">
-        <v>6.542222222222223</v>
+        <v>6.54</v>
       </c>
       <c r="G8" t="n">
-        <v>6.532075471698113</v>
+        <v>6.53</v>
       </c>
       <c r="H8" t="n">
-        <v>6.709150326797386</v>
+        <v>6.71</v>
       </c>
       <c r="I8" t="n">
-        <v>6.72543352601156</v>
+        <v>6.73</v>
       </c>
     </row>
   </sheetData>
